--- a/stickers/stickers.xlsx
+++ b/stickers/stickers.xlsx
@@ -34,1804 +34,1804 @@
     <t>semestr 6</t>
   </si>
   <si>
-    <t>S1EDF90</t>
-  </si>
-  <si>
-    <t>S1E6161</t>
-  </si>
-  <si>
-    <t>S117C32</t>
-  </si>
-  <si>
-    <t>S1C4173</t>
-  </si>
-  <si>
-    <t>S1A83C4</t>
-  </si>
-  <si>
-    <t>S1A5345</t>
-  </si>
-  <si>
-    <t>S1A5016</t>
-  </si>
-  <si>
-    <t>S17E2F7</t>
-  </si>
-  <si>
-    <t>S143948</t>
-  </si>
-  <si>
-    <t>S1FD3D9</t>
-  </si>
-  <si>
-    <t>S1B3F010</t>
-  </si>
-  <si>
-    <t>S1C69D11</t>
-  </si>
-  <si>
-    <t>S108E312</t>
-  </si>
-  <si>
-    <t>S17F2A13</t>
-  </si>
-  <si>
-    <t>S110CD14</t>
-  </si>
-  <si>
-    <t>S1F00F15</t>
-  </si>
-  <si>
-    <t>S1330C16</t>
-  </si>
-  <si>
-    <t>S150D917</t>
-  </si>
-  <si>
-    <t>S1C3BC18</t>
-  </si>
-  <si>
-    <t>S16C2219</t>
-  </si>
-  <si>
-    <t>S1B3D720</t>
-  </si>
-  <si>
-    <t>S1BD4A21</t>
-  </si>
-  <si>
-    <t>S1995022</t>
-  </si>
-  <si>
-    <t>S1BF0723</t>
-  </si>
-  <si>
-    <t>S1DD9B24</t>
-  </si>
-  <si>
-    <t>S1CC3F25</t>
-  </si>
-  <si>
-    <t>S1450626</t>
-  </si>
-  <si>
-    <t>S10BDF27</t>
-  </si>
-  <si>
-    <t>S1AA7D28</t>
-  </si>
-  <si>
-    <t>S14AB229</t>
-  </si>
-  <si>
-    <t>S1443930</t>
-  </si>
-  <si>
-    <t>S1ED5A31</t>
-  </si>
-  <si>
-    <t>S1045932</t>
-  </si>
-  <si>
-    <t>S1010333</t>
-  </si>
-  <si>
-    <t>S137F034</t>
-  </si>
-  <si>
-    <t>S1CDDF35</t>
-  </si>
-  <si>
-    <t>S170EF36</t>
-  </si>
-  <si>
-    <t>S1961137</t>
-  </si>
-  <si>
-    <t>S1BF1538</t>
-  </si>
-  <si>
-    <t>S1291E39</t>
-  </si>
-  <si>
-    <t>S11EE140</t>
-  </si>
-  <si>
-    <t>S1E1F141</t>
-  </si>
-  <si>
-    <t>S1FFD342</t>
-  </si>
-  <si>
-    <t>S1632143</t>
-  </si>
-  <si>
-    <t>S12BF344</t>
-  </si>
-  <si>
-    <t>S16F3245</t>
-  </si>
-  <si>
-    <t>S103ED46</t>
-  </si>
-  <si>
-    <t>S18E0047</t>
-  </si>
-  <si>
-    <t>S1171E48</t>
-  </si>
-  <si>
-    <t>S19F5649</t>
-  </si>
-  <si>
-    <t>S1E00150</t>
-  </si>
-  <si>
-    <t>S16A4551</t>
-  </si>
-  <si>
-    <t>S182B552</t>
-  </si>
-  <si>
-    <t>S1721B53</t>
-  </si>
-  <si>
-    <t>S1C98654</t>
-  </si>
-  <si>
-    <t>S1166855</t>
-  </si>
-  <si>
-    <t>S13F9C56</t>
-  </si>
-  <si>
-    <t>S12EF157</t>
-  </si>
-  <si>
-    <t>S1479558</t>
-  </si>
-  <si>
-    <t>S11E2859</t>
-  </si>
-  <si>
-    <t>S1888E60</t>
-  </si>
-  <si>
-    <t>S12DE561</t>
-  </si>
-  <si>
-    <t>S10DE062</t>
-  </si>
-  <si>
-    <t>S18D3863</t>
-  </si>
-  <si>
-    <t>S179FD64</t>
-  </si>
-  <si>
-    <t>S1302465</t>
-  </si>
-  <si>
-    <t>S155D966</t>
-  </si>
-  <si>
-    <t>S174B367</t>
-  </si>
-  <si>
-    <t>S13FBC68</t>
-  </si>
-  <si>
-    <t>S1CA0269</t>
-  </si>
-  <si>
-    <t>S11BB670</t>
-  </si>
-  <si>
-    <t>S1923F71</t>
-  </si>
-  <si>
-    <t>S1D78172</t>
-  </si>
-  <si>
-    <t>S1DC7B73</t>
-  </si>
-  <si>
-    <t>S112F374</t>
-  </si>
-  <si>
-    <t>S163DC75</t>
-  </si>
-  <si>
-    <t>S1D07576</t>
-  </si>
-  <si>
-    <t>S14EAA77</t>
-  </si>
-  <si>
-    <t>S18EE278</t>
-  </si>
-  <si>
-    <t>S1695F79</t>
-  </si>
-  <si>
-    <t>S134E280</t>
-  </si>
-  <si>
-    <t>S198AE81</t>
-  </si>
-  <si>
-    <t>S123F082</t>
-  </si>
-  <si>
-    <t>S12FE183</t>
-  </si>
-  <si>
-    <t>S1B32084</t>
-  </si>
-  <si>
-    <t>S1282185</t>
-  </si>
-  <si>
-    <t>S1512086</t>
-  </si>
-  <si>
-    <t>S1ECF887</t>
-  </si>
-  <si>
-    <t>S17DE388</t>
-  </si>
-  <si>
-    <t>S1419B89</t>
-  </si>
-  <si>
-    <t>S1F02690</t>
-  </si>
-  <si>
-    <t>S125FF91</t>
-  </si>
-  <si>
-    <t>S1984A92</t>
-  </si>
-  <si>
-    <t>S19A9F93</t>
-  </si>
-  <si>
-    <t>S180A994</t>
-  </si>
-  <si>
-    <t>S1AD6E95</t>
-  </si>
-  <si>
-    <t>S15B8296</t>
-  </si>
-  <si>
-    <t>S17C6997</t>
-  </si>
-  <si>
-    <t>S14B4298</t>
-  </si>
-  <si>
-    <t>S177B899</t>
-  </si>
-  <si>
-    <t>S2EDF90</t>
-  </si>
-  <si>
-    <t>S2E6161</t>
-  </si>
-  <si>
-    <t>S217C32</t>
-  </si>
-  <si>
-    <t>S2C4173</t>
-  </si>
-  <si>
-    <t>S2A83C4</t>
-  </si>
-  <si>
-    <t>S2A5345</t>
-  </si>
-  <si>
-    <t>S2A5016</t>
-  </si>
-  <si>
-    <t>S27E2F7</t>
-  </si>
-  <si>
-    <t>S243948</t>
-  </si>
-  <si>
-    <t>S2FD3D9</t>
-  </si>
-  <si>
-    <t>S2B3F010</t>
-  </si>
-  <si>
-    <t>S2C69D11</t>
-  </si>
-  <si>
-    <t>S208E312</t>
-  </si>
-  <si>
-    <t>S27F2A13</t>
-  </si>
-  <si>
-    <t>S210CD14</t>
-  </si>
-  <si>
-    <t>S2F00F15</t>
-  </si>
-  <si>
-    <t>S2330C16</t>
-  </si>
-  <si>
-    <t>S250D917</t>
-  </si>
-  <si>
-    <t>S2C3BC18</t>
-  </si>
-  <si>
-    <t>S26C2219</t>
-  </si>
-  <si>
-    <t>S2B3D720</t>
-  </si>
-  <si>
-    <t>S2BD4A21</t>
-  </si>
-  <si>
-    <t>S2995022</t>
-  </si>
-  <si>
-    <t>S2BF0723</t>
-  </si>
-  <si>
-    <t>S2DD9B24</t>
-  </si>
-  <si>
-    <t>S2CC3F25</t>
-  </si>
-  <si>
-    <t>S2450626</t>
-  </si>
-  <si>
-    <t>S20BDF27</t>
-  </si>
-  <si>
-    <t>S2AA7D28</t>
-  </si>
-  <si>
-    <t>S24AB229</t>
-  </si>
-  <si>
-    <t>S2443930</t>
-  </si>
-  <si>
-    <t>S2ED5A31</t>
-  </si>
-  <si>
-    <t>S2045932</t>
-  </si>
-  <si>
-    <t>S2010333</t>
-  </si>
-  <si>
-    <t>S237F034</t>
-  </si>
-  <si>
-    <t>S2CDDF35</t>
-  </si>
-  <si>
-    <t>S270EF36</t>
-  </si>
-  <si>
-    <t>S2961137</t>
-  </si>
-  <si>
-    <t>S2BF1538</t>
-  </si>
-  <si>
-    <t>S2291E39</t>
-  </si>
-  <si>
-    <t>S21EE140</t>
-  </si>
-  <si>
-    <t>S2E1F141</t>
-  </si>
-  <si>
-    <t>S2FFD342</t>
-  </si>
-  <si>
-    <t>S2632143</t>
-  </si>
-  <si>
-    <t>S22BF344</t>
-  </si>
-  <si>
-    <t>S26F3245</t>
-  </si>
-  <si>
-    <t>S203ED46</t>
-  </si>
-  <si>
-    <t>S28E0047</t>
-  </si>
-  <si>
-    <t>S2171E48</t>
-  </si>
-  <si>
-    <t>S29F5649</t>
-  </si>
-  <si>
-    <t>S2E00150</t>
-  </si>
-  <si>
-    <t>S26A4551</t>
-  </si>
-  <si>
-    <t>S282B552</t>
-  </si>
-  <si>
-    <t>S2721B53</t>
-  </si>
-  <si>
-    <t>S2C98654</t>
-  </si>
-  <si>
-    <t>S2166855</t>
-  </si>
-  <si>
-    <t>S23F9C56</t>
-  </si>
-  <si>
-    <t>S22EF157</t>
-  </si>
-  <si>
-    <t>S2479558</t>
-  </si>
-  <si>
-    <t>S21E2859</t>
-  </si>
-  <si>
-    <t>S2888E60</t>
-  </si>
-  <si>
-    <t>S22DE561</t>
-  </si>
-  <si>
-    <t>S20DE062</t>
-  </si>
-  <si>
-    <t>S28D3863</t>
-  </si>
-  <si>
-    <t>S279FD64</t>
-  </si>
-  <si>
-    <t>S2302465</t>
-  </si>
-  <si>
-    <t>S255D966</t>
-  </si>
-  <si>
-    <t>S274B367</t>
-  </si>
-  <si>
-    <t>S23FBC68</t>
-  </si>
-  <si>
-    <t>S2CA0269</t>
-  </si>
-  <si>
-    <t>S21BB670</t>
-  </si>
-  <si>
-    <t>S2923F71</t>
-  </si>
-  <si>
-    <t>S2D78172</t>
-  </si>
-  <si>
-    <t>S2DC7B73</t>
-  </si>
-  <si>
-    <t>S212F374</t>
-  </si>
-  <si>
-    <t>S263DC75</t>
-  </si>
-  <si>
-    <t>S2D07576</t>
-  </si>
-  <si>
-    <t>S24EAA77</t>
-  </si>
-  <si>
-    <t>S28EE278</t>
-  </si>
-  <si>
-    <t>S2695F79</t>
-  </si>
-  <si>
-    <t>S234E280</t>
-  </si>
-  <si>
-    <t>S298AE81</t>
-  </si>
-  <si>
-    <t>S223F082</t>
-  </si>
-  <si>
-    <t>S22FE183</t>
-  </si>
-  <si>
-    <t>S2B32084</t>
-  </si>
-  <si>
-    <t>S2282185</t>
-  </si>
-  <si>
-    <t>S2512086</t>
-  </si>
-  <si>
-    <t>S2ECF887</t>
-  </si>
-  <si>
-    <t>S27DE388</t>
-  </si>
-  <si>
-    <t>S2419B89</t>
-  </si>
-  <si>
-    <t>S2F02690</t>
-  </si>
-  <si>
-    <t>S225FF91</t>
-  </si>
-  <si>
-    <t>S2984A92</t>
-  </si>
-  <si>
-    <t>S29A9F93</t>
-  </si>
-  <si>
-    <t>S280A994</t>
-  </si>
-  <si>
-    <t>S2AD6E95</t>
-  </si>
-  <si>
-    <t>S25B8296</t>
-  </si>
-  <si>
-    <t>S27C6997</t>
-  </si>
-  <si>
-    <t>S24B4298</t>
-  </si>
-  <si>
-    <t>S277B899</t>
-  </si>
-  <si>
-    <t>S3EDF90</t>
-  </si>
-  <si>
-    <t>S3E6161</t>
-  </si>
-  <si>
-    <t>S317C32</t>
-  </si>
-  <si>
-    <t>S3C4173</t>
-  </si>
-  <si>
-    <t>S3A83C4</t>
-  </si>
-  <si>
-    <t>S3A5345</t>
-  </si>
-  <si>
-    <t>S3A5016</t>
-  </si>
-  <si>
-    <t>S37E2F7</t>
-  </si>
-  <si>
-    <t>S343948</t>
-  </si>
-  <si>
-    <t>S3FD3D9</t>
-  </si>
-  <si>
-    <t>S3B3F010</t>
-  </si>
-  <si>
-    <t>S3C69D11</t>
-  </si>
-  <si>
-    <t>S308E312</t>
-  </si>
-  <si>
-    <t>S37F2A13</t>
-  </si>
-  <si>
-    <t>S310CD14</t>
-  </si>
-  <si>
-    <t>S3F00F15</t>
-  </si>
-  <si>
-    <t>S3330C16</t>
-  </si>
-  <si>
-    <t>S350D917</t>
-  </si>
-  <si>
-    <t>S3C3BC18</t>
-  </si>
-  <si>
-    <t>S36C2219</t>
-  </si>
-  <si>
-    <t>S3B3D720</t>
-  </si>
-  <si>
-    <t>S3BD4A21</t>
-  </si>
-  <si>
-    <t>S3995022</t>
-  </si>
-  <si>
-    <t>S3BF0723</t>
-  </si>
-  <si>
-    <t>S3DD9B24</t>
-  </si>
-  <si>
-    <t>S3CC3F25</t>
-  </si>
-  <si>
-    <t>S3450626</t>
-  </si>
-  <si>
-    <t>S30BDF27</t>
-  </si>
-  <si>
-    <t>S3AA7D28</t>
-  </si>
-  <si>
-    <t>S34AB229</t>
-  </si>
-  <si>
-    <t>S3443930</t>
-  </si>
-  <si>
-    <t>S3ED5A31</t>
-  </si>
-  <si>
-    <t>S3045932</t>
-  </si>
-  <si>
-    <t>S3010333</t>
-  </si>
-  <si>
-    <t>S337F034</t>
-  </si>
-  <si>
-    <t>S3CDDF35</t>
-  </si>
-  <si>
-    <t>S370EF36</t>
-  </si>
-  <si>
-    <t>S3961137</t>
-  </si>
-  <si>
-    <t>S3BF1538</t>
-  </si>
-  <si>
-    <t>S3291E39</t>
-  </si>
-  <si>
-    <t>S31EE140</t>
-  </si>
-  <si>
-    <t>S3E1F141</t>
-  </si>
-  <si>
-    <t>S3FFD342</t>
-  </si>
-  <si>
-    <t>S3632143</t>
-  </si>
-  <si>
-    <t>S32BF344</t>
-  </si>
-  <si>
-    <t>S36F3245</t>
-  </si>
-  <si>
-    <t>S303ED46</t>
-  </si>
-  <si>
-    <t>S38E0047</t>
-  </si>
-  <si>
-    <t>S3171E48</t>
-  </si>
-  <si>
-    <t>S39F5649</t>
-  </si>
-  <si>
-    <t>S3E00150</t>
-  </si>
-  <si>
-    <t>S36A4551</t>
-  </si>
-  <si>
-    <t>S382B552</t>
-  </si>
-  <si>
-    <t>S3721B53</t>
-  </si>
-  <si>
-    <t>S3C98654</t>
-  </si>
-  <si>
-    <t>S3166855</t>
-  </si>
-  <si>
-    <t>S33F9C56</t>
-  </si>
-  <si>
-    <t>S32EF157</t>
-  </si>
-  <si>
-    <t>S3479558</t>
-  </si>
-  <si>
-    <t>S31E2859</t>
-  </si>
-  <si>
-    <t>S3888E60</t>
-  </si>
-  <si>
-    <t>S32DE561</t>
-  </si>
-  <si>
-    <t>S30DE062</t>
-  </si>
-  <si>
-    <t>S38D3863</t>
-  </si>
-  <si>
-    <t>S379FD64</t>
-  </si>
-  <si>
-    <t>S3302465</t>
-  </si>
-  <si>
-    <t>S355D966</t>
-  </si>
-  <si>
-    <t>S374B367</t>
-  </si>
-  <si>
-    <t>S33FBC68</t>
-  </si>
-  <si>
-    <t>S3CA0269</t>
-  </si>
-  <si>
-    <t>S31BB670</t>
-  </si>
-  <si>
-    <t>S3923F71</t>
-  </si>
-  <si>
-    <t>S3D78172</t>
-  </si>
-  <si>
-    <t>S3DC7B73</t>
-  </si>
-  <si>
-    <t>S312F374</t>
-  </si>
-  <si>
-    <t>S363DC75</t>
-  </si>
-  <si>
-    <t>S3D07576</t>
-  </si>
-  <si>
-    <t>S34EAA77</t>
-  </si>
-  <si>
-    <t>S38EE278</t>
-  </si>
-  <si>
-    <t>S3695F79</t>
-  </si>
-  <si>
-    <t>S334E280</t>
-  </si>
-  <si>
-    <t>S398AE81</t>
-  </si>
-  <si>
-    <t>S323F082</t>
-  </si>
-  <si>
-    <t>S32FE183</t>
-  </si>
-  <si>
-    <t>S3B32084</t>
-  </si>
-  <si>
-    <t>S3282185</t>
-  </si>
-  <si>
-    <t>S3512086</t>
-  </si>
-  <si>
-    <t>S3ECF887</t>
-  </si>
-  <si>
-    <t>S37DE388</t>
-  </si>
-  <si>
-    <t>S3419B89</t>
-  </si>
-  <si>
-    <t>S3F02690</t>
-  </si>
-  <si>
-    <t>S325FF91</t>
-  </si>
-  <si>
-    <t>S3984A92</t>
-  </si>
-  <si>
-    <t>S39A9F93</t>
-  </si>
-  <si>
-    <t>S380A994</t>
-  </si>
-  <si>
-    <t>S3AD6E95</t>
-  </si>
-  <si>
-    <t>S35B8296</t>
-  </si>
-  <si>
-    <t>S37C6997</t>
-  </si>
-  <si>
-    <t>S34B4298</t>
-  </si>
-  <si>
-    <t>S377B899</t>
-  </si>
-  <si>
-    <t>S4EDF90</t>
-  </si>
-  <si>
-    <t>S4E6161</t>
-  </si>
-  <si>
-    <t>S417C32</t>
-  </si>
-  <si>
-    <t>S4C4173</t>
-  </si>
-  <si>
-    <t>S4A83C4</t>
-  </si>
-  <si>
-    <t>S4A5345</t>
-  </si>
-  <si>
-    <t>S4A5016</t>
-  </si>
-  <si>
-    <t>S47E2F7</t>
-  </si>
-  <si>
-    <t>S443948</t>
-  </si>
-  <si>
-    <t>S4FD3D9</t>
-  </si>
-  <si>
-    <t>S4B3F010</t>
-  </si>
-  <si>
-    <t>S4C69D11</t>
-  </si>
-  <si>
-    <t>S408E312</t>
-  </si>
-  <si>
-    <t>S47F2A13</t>
-  </si>
-  <si>
-    <t>S410CD14</t>
-  </si>
-  <si>
-    <t>S4F00F15</t>
-  </si>
-  <si>
-    <t>S4330C16</t>
-  </si>
-  <si>
-    <t>S450D917</t>
-  </si>
-  <si>
-    <t>S4C3BC18</t>
-  </si>
-  <si>
-    <t>S46C2219</t>
-  </si>
-  <si>
-    <t>S4B3D720</t>
-  </si>
-  <si>
-    <t>S4BD4A21</t>
-  </si>
-  <si>
-    <t>S4995022</t>
-  </si>
-  <si>
-    <t>S4BF0723</t>
-  </si>
-  <si>
-    <t>S4DD9B24</t>
-  </si>
-  <si>
-    <t>S4CC3F25</t>
-  </si>
-  <si>
-    <t>S4450626</t>
-  </si>
-  <si>
-    <t>S40BDF27</t>
-  </si>
-  <si>
-    <t>S4AA7D28</t>
-  </si>
-  <si>
-    <t>S44AB229</t>
-  </si>
-  <si>
-    <t>S4443930</t>
-  </si>
-  <si>
-    <t>S4ED5A31</t>
-  </si>
-  <si>
-    <t>S4045932</t>
-  </si>
-  <si>
-    <t>S4010333</t>
-  </si>
-  <si>
-    <t>S437F034</t>
-  </si>
-  <si>
-    <t>S4CDDF35</t>
-  </si>
-  <si>
-    <t>S470EF36</t>
-  </si>
-  <si>
-    <t>S4961137</t>
-  </si>
-  <si>
-    <t>S4BF1538</t>
-  </si>
-  <si>
-    <t>S4291E39</t>
-  </si>
-  <si>
-    <t>S41EE140</t>
-  </si>
-  <si>
-    <t>S4E1F141</t>
-  </si>
-  <si>
-    <t>S4FFD342</t>
-  </si>
-  <si>
-    <t>S4632143</t>
-  </si>
-  <si>
-    <t>S42BF344</t>
-  </si>
-  <si>
-    <t>S46F3245</t>
-  </si>
-  <si>
-    <t>S403ED46</t>
-  </si>
-  <si>
-    <t>S48E0047</t>
-  </si>
-  <si>
-    <t>S4171E48</t>
-  </si>
-  <si>
-    <t>S49F5649</t>
-  </si>
-  <si>
-    <t>S4E00150</t>
-  </si>
-  <si>
-    <t>S46A4551</t>
-  </si>
-  <si>
-    <t>S482B552</t>
-  </si>
-  <si>
-    <t>S4721B53</t>
-  </si>
-  <si>
-    <t>S4C98654</t>
-  </si>
-  <si>
-    <t>S4166855</t>
-  </si>
-  <si>
-    <t>S43F9C56</t>
-  </si>
-  <si>
-    <t>S42EF157</t>
-  </si>
-  <si>
-    <t>S4479558</t>
-  </si>
-  <si>
-    <t>S41E2859</t>
-  </si>
-  <si>
-    <t>S4888E60</t>
-  </si>
-  <si>
-    <t>S42DE561</t>
-  </si>
-  <si>
-    <t>S40DE062</t>
-  </si>
-  <si>
-    <t>S48D3863</t>
-  </si>
-  <si>
-    <t>S479FD64</t>
-  </si>
-  <si>
-    <t>S4302465</t>
-  </si>
-  <si>
-    <t>S455D966</t>
-  </si>
-  <si>
-    <t>S474B367</t>
-  </si>
-  <si>
-    <t>S43FBC68</t>
-  </si>
-  <si>
-    <t>S4CA0269</t>
-  </si>
-  <si>
-    <t>S41BB670</t>
-  </si>
-  <si>
-    <t>S4923F71</t>
-  </si>
-  <si>
-    <t>S4D78172</t>
-  </si>
-  <si>
-    <t>S4DC7B73</t>
-  </si>
-  <si>
-    <t>S412F374</t>
-  </si>
-  <si>
-    <t>S463DC75</t>
-  </si>
-  <si>
-    <t>S4D07576</t>
-  </si>
-  <si>
-    <t>S44EAA77</t>
-  </si>
-  <si>
-    <t>S48EE278</t>
-  </si>
-  <si>
-    <t>S4695F79</t>
-  </si>
-  <si>
-    <t>S434E280</t>
-  </si>
-  <si>
-    <t>S498AE81</t>
-  </si>
-  <si>
-    <t>S423F082</t>
-  </si>
-  <si>
-    <t>S42FE183</t>
-  </si>
-  <si>
-    <t>S4B32084</t>
-  </si>
-  <si>
-    <t>S4282185</t>
-  </si>
-  <si>
-    <t>S4512086</t>
-  </si>
-  <si>
-    <t>S4ECF887</t>
-  </si>
-  <si>
-    <t>S47DE388</t>
-  </si>
-  <si>
-    <t>S4419B89</t>
-  </si>
-  <si>
-    <t>S4F02690</t>
-  </si>
-  <si>
-    <t>S425FF91</t>
-  </si>
-  <si>
-    <t>S4984A92</t>
-  </si>
-  <si>
-    <t>S49A9F93</t>
-  </si>
-  <si>
-    <t>S480A994</t>
-  </si>
-  <si>
-    <t>S4AD6E95</t>
-  </si>
-  <si>
-    <t>S45B8296</t>
-  </si>
-  <si>
-    <t>S47C6997</t>
-  </si>
-  <si>
-    <t>S44B4298</t>
-  </si>
-  <si>
-    <t>S477B899</t>
-  </si>
-  <si>
-    <t>S5EDF90</t>
-  </si>
-  <si>
-    <t>S5E6161</t>
-  </si>
-  <si>
-    <t>S517C32</t>
-  </si>
-  <si>
-    <t>S5C4173</t>
-  </si>
-  <si>
-    <t>S5A83C4</t>
-  </si>
-  <si>
-    <t>S5A5345</t>
-  </si>
-  <si>
-    <t>S5A5016</t>
-  </si>
-  <si>
-    <t>S57E2F7</t>
-  </si>
-  <si>
-    <t>S543948</t>
-  </si>
-  <si>
-    <t>S5FD3D9</t>
-  </si>
-  <si>
-    <t>S5B3F010</t>
-  </si>
-  <si>
-    <t>S5C69D11</t>
-  </si>
-  <si>
-    <t>S508E312</t>
-  </si>
-  <si>
-    <t>S57F2A13</t>
-  </si>
-  <si>
-    <t>S510CD14</t>
-  </si>
-  <si>
-    <t>S5F00F15</t>
-  </si>
-  <si>
-    <t>S5330C16</t>
-  </si>
-  <si>
-    <t>S550D917</t>
-  </si>
-  <si>
-    <t>S5C3BC18</t>
-  </si>
-  <si>
-    <t>S56C2219</t>
-  </si>
-  <si>
-    <t>S5B3D720</t>
-  </si>
-  <si>
-    <t>S5BD4A21</t>
-  </si>
-  <si>
-    <t>S5995022</t>
-  </si>
-  <si>
-    <t>S5BF0723</t>
-  </si>
-  <si>
-    <t>S5DD9B24</t>
-  </si>
-  <si>
-    <t>S5CC3F25</t>
-  </si>
-  <si>
-    <t>S5450626</t>
-  </si>
-  <si>
-    <t>S50BDF27</t>
-  </si>
-  <si>
-    <t>S5AA7D28</t>
-  </si>
-  <si>
-    <t>S54AB229</t>
-  </si>
-  <si>
-    <t>S5443930</t>
-  </si>
-  <si>
-    <t>S5ED5A31</t>
-  </si>
-  <si>
-    <t>S5045932</t>
-  </si>
-  <si>
-    <t>S5010333</t>
-  </si>
-  <si>
-    <t>S537F034</t>
-  </si>
-  <si>
-    <t>S5CDDF35</t>
-  </si>
-  <si>
-    <t>S570EF36</t>
-  </si>
-  <si>
-    <t>S5961137</t>
-  </si>
-  <si>
-    <t>S5BF1538</t>
-  </si>
-  <si>
-    <t>S5291E39</t>
-  </si>
-  <si>
-    <t>S51EE140</t>
-  </si>
-  <si>
-    <t>S5E1F141</t>
-  </si>
-  <si>
-    <t>S5FFD342</t>
-  </si>
-  <si>
-    <t>S5632143</t>
-  </si>
-  <si>
-    <t>S52BF344</t>
-  </si>
-  <si>
-    <t>S56F3245</t>
-  </si>
-  <si>
-    <t>S503ED46</t>
-  </si>
-  <si>
-    <t>S58E0047</t>
-  </si>
-  <si>
-    <t>S5171E48</t>
-  </si>
-  <si>
-    <t>S59F5649</t>
-  </si>
-  <si>
-    <t>S5E00150</t>
-  </si>
-  <si>
-    <t>S56A4551</t>
-  </si>
-  <si>
-    <t>S582B552</t>
-  </si>
-  <si>
-    <t>S5721B53</t>
-  </si>
-  <si>
-    <t>S5C98654</t>
-  </si>
-  <si>
-    <t>S5166855</t>
-  </si>
-  <si>
-    <t>S53F9C56</t>
-  </si>
-  <si>
-    <t>S52EF157</t>
-  </si>
-  <si>
-    <t>S5479558</t>
-  </si>
-  <si>
-    <t>S51E2859</t>
-  </si>
-  <si>
-    <t>S5888E60</t>
-  </si>
-  <si>
-    <t>S52DE561</t>
-  </si>
-  <si>
-    <t>S50DE062</t>
-  </si>
-  <si>
-    <t>S58D3863</t>
-  </si>
-  <si>
-    <t>S579FD64</t>
-  </si>
-  <si>
-    <t>S5302465</t>
-  </si>
-  <si>
-    <t>S555D966</t>
-  </si>
-  <si>
-    <t>S574B367</t>
-  </si>
-  <si>
-    <t>S53FBC68</t>
-  </si>
-  <si>
-    <t>S5CA0269</t>
-  </si>
-  <si>
-    <t>S51BB670</t>
-  </si>
-  <si>
-    <t>S5923F71</t>
-  </si>
-  <si>
-    <t>S5D78172</t>
-  </si>
-  <si>
-    <t>S5DC7B73</t>
-  </si>
-  <si>
-    <t>S512F374</t>
-  </si>
-  <si>
-    <t>S563DC75</t>
-  </si>
-  <si>
-    <t>S5D07576</t>
-  </si>
-  <si>
-    <t>S54EAA77</t>
-  </si>
-  <si>
-    <t>S58EE278</t>
-  </si>
-  <si>
-    <t>S5695F79</t>
-  </si>
-  <si>
-    <t>S534E280</t>
-  </si>
-  <si>
-    <t>S598AE81</t>
-  </si>
-  <si>
-    <t>S523F082</t>
-  </si>
-  <si>
-    <t>S52FE183</t>
-  </si>
-  <si>
-    <t>S5B32084</t>
-  </si>
-  <si>
-    <t>S5282185</t>
-  </si>
-  <si>
-    <t>S5512086</t>
-  </si>
-  <si>
-    <t>S5ECF887</t>
-  </si>
-  <si>
-    <t>S57DE388</t>
-  </si>
-  <si>
-    <t>S5419B89</t>
-  </si>
-  <si>
-    <t>S5F02690</t>
-  </si>
-  <si>
-    <t>S525FF91</t>
-  </si>
-  <si>
-    <t>S5984A92</t>
-  </si>
-  <si>
-    <t>S59A9F93</t>
-  </si>
-  <si>
-    <t>S580A994</t>
-  </si>
-  <si>
-    <t>S5AD6E95</t>
-  </si>
-  <si>
-    <t>S55B8296</t>
-  </si>
-  <si>
-    <t>S57C6997</t>
-  </si>
-  <si>
-    <t>S54B4298</t>
-  </si>
-  <si>
-    <t>S577B899</t>
-  </si>
-  <si>
-    <t>S6EDF90</t>
-  </si>
-  <si>
-    <t>S6E6161</t>
-  </si>
-  <si>
-    <t>S617C32</t>
-  </si>
-  <si>
-    <t>S6C4173</t>
-  </si>
-  <si>
-    <t>S6A83C4</t>
-  </si>
-  <si>
-    <t>S6A5345</t>
-  </si>
-  <si>
-    <t>S6A5016</t>
-  </si>
-  <si>
-    <t>S67E2F7</t>
-  </si>
-  <si>
-    <t>S643948</t>
-  </si>
-  <si>
-    <t>S6FD3D9</t>
-  </si>
-  <si>
-    <t>S6B3F010</t>
-  </si>
-  <si>
-    <t>S6C69D11</t>
-  </si>
-  <si>
-    <t>S608E312</t>
-  </si>
-  <si>
-    <t>S67F2A13</t>
-  </si>
-  <si>
-    <t>S610CD14</t>
-  </si>
-  <si>
-    <t>S6F00F15</t>
-  </si>
-  <si>
-    <t>S6330C16</t>
-  </si>
-  <si>
-    <t>S650D917</t>
-  </si>
-  <si>
-    <t>S6C3BC18</t>
-  </si>
-  <si>
-    <t>S66C2219</t>
-  </si>
-  <si>
-    <t>S6B3D720</t>
-  </si>
-  <si>
-    <t>S6BD4A21</t>
-  </si>
-  <si>
-    <t>S6995022</t>
-  </si>
-  <si>
-    <t>S6BF0723</t>
-  </si>
-  <si>
-    <t>S6DD9B24</t>
-  </si>
-  <si>
-    <t>S6CC3F25</t>
-  </si>
-  <si>
-    <t>S6450626</t>
-  </si>
-  <si>
-    <t>S60BDF27</t>
-  </si>
-  <si>
-    <t>S6AA7D28</t>
-  </si>
-  <si>
-    <t>S64AB229</t>
-  </si>
-  <si>
-    <t>S6443930</t>
-  </si>
-  <si>
-    <t>S6ED5A31</t>
-  </si>
-  <si>
-    <t>S6045932</t>
-  </si>
-  <si>
-    <t>S6010333</t>
-  </si>
-  <si>
-    <t>S637F034</t>
-  </si>
-  <si>
-    <t>S6CDDF35</t>
-  </si>
-  <si>
-    <t>S670EF36</t>
-  </si>
-  <si>
-    <t>S6961137</t>
-  </si>
-  <si>
-    <t>S6BF1538</t>
-  </si>
-  <si>
-    <t>S6291E39</t>
-  </si>
-  <si>
-    <t>S61EE140</t>
-  </si>
-  <si>
-    <t>S6E1F141</t>
-  </si>
-  <si>
-    <t>S6FFD342</t>
-  </si>
-  <si>
-    <t>S6632143</t>
-  </si>
-  <si>
-    <t>S62BF344</t>
-  </si>
-  <si>
-    <t>S66F3245</t>
-  </si>
-  <si>
-    <t>S603ED46</t>
-  </si>
-  <si>
-    <t>S68E0047</t>
-  </si>
-  <si>
-    <t>S6171E48</t>
-  </si>
-  <si>
-    <t>S69F5649</t>
-  </si>
-  <si>
-    <t>S6E00150</t>
-  </si>
-  <si>
-    <t>S66A4551</t>
-  </si>
-  <si>
-    <t>S682B552</t>
-  </si>
-  <si>
-    <t>S6721B53</t>
-  </si>
-  <si>
-    <t>S6C98654</t>
-  </si>
-  <si>
-    <t>S6166855</t>
-  </si>
-  <si>
-    <t>S63F9C56</t>
-  </si>
-  <si>
-    <t>S62EF157</t>
-  </si>
-  <si>
-    <t>S6479558</t>
-  </si>
-  <si>
-    <t>S61E2859</t>
-  </si>
-  <si>
-    <t>S6888E60</t>
-  </si>
-  <si>
-    <t>S62DE561</t>
-  </si>
-  <si>
-    <t>S60DE062</t>
-  </si>
-  <si>
-    <t>S68D3863</t>
-  </si>
-  <si>
-    <t>S679FD64</t>
-  </si>
-  <si>
-    <t>S6302465</t>
-  </si>
-  <si>
-    <t>S655D966</t>
-  </si>
-  <si>
-    <t>S674B367</t>
-  </si>
-  <si>
-    <t>S63FBC68</t>
-  </si>
-  <si>
-    <t>S6CA0269</t>
-  </si>
-  <si>
-    <t>S61BB670</t>
-  </si>
-  <si>
-    <t>S6923F71</t>
-  </si>
-  <si>
-    <t>S6D78172</t>
-  </si>
-  <si>
-    <t>S6DC7B73</t>
-  </si>
-  <si>
-    <t>S612F374</t>
-  </si>
-  <si>
-    <t>S663DC75</t>
-  </si>
-  <si>
-    <t>S6D07576</t>
-  </si>
-  <si>
-    <t>S64EAA77</t>
-  </si>
-  <si>
-    <t>S68EE278</t>
-  </si>
-  <si>
-    <t>S6695F79</t>
-  </si>
-  <si>
-    <t>S634E280</t>
-  </si>
-  <si>
-    <t>S698AE81</t>
-  </si>
-  <si>
-    <t>S623F082</t>
-  </si>
-  <si>
-    <t>S62FE183</t>
-  </si>
-  <si>
-    <t>S6B32084</t>
-  </si>
-  <si>
-    <t>S6282185</t>
-  </si>
-  <si>
-    <t>S6512086</t>
-  </si>
-  <si>
-    <t>S6ECF887</t>
-  </si>
-  <si>
-    <t>S67DE388</t>
-  </si>
-  <si>
-    <t>S6419B89</t>
-  </si>
-  <si>
-    <t>S6F02690</t>
-  </si>
-  <si>
-    <t>S625FF91</t>
-  </si>
-  <si>
-    <t>S6984A92</t>
-  </si>
-  <si>
-    <t>S69A9F93</t>
-  </si>
-  <si>
-    <t>S680A994</t>
-  </si>
-  <si>
-    <t>S6AD6E95</t>
-  </si>
-  <si>
-    <t>S65B8296</t>
-  </si>
-  <si>
-    <t>S67C6997</t>
-  </si>
-  <si>
-    <t>S64B4298</t>
-  </si>
-  <si>
-    <t>S677B899</t>
+    <t>S19EC90</t>
+  </si>
+  <si>
+    <t>S1EBE01</t>
+  </si>
+  <si>
+    <t>S1B7682</t>
+  </si>
+  <si>
+    <t>S19E663</t>
+  </si>
+  <si>
+    <t>S16C8F4</t>
+  </si>
+  <si>
+    <t>S107035</t>
+  </si>
+  <si>
+    <t>S1A0266</t>
+  </si>
+  <si>
+    <t>S1C9247</t>
+  </si>
+  <si>
+    <t>S1ADD38</t>
+  </si>
+  <si>
+    <t>S1281A9</t>
+  </si>
+  <si>
+    <t>S191E410</t>
+  </si>
+  <si>
+    <t>S10E9411</t>
+  </si>
+  <si>
+    <t>S18AB912</t>
+  </si>
+  <si>
+    <t>S1B2D713</t>
+  </si>
+  <si>
+    <t>S1239214</t>
+  </si>
+  <si>
+    <t>S11CB415</t>
+  </si>
+  <si>
+    <t>S1D11016</t>
+  </si>
+  <si>
+    <t>S101C517</t>
+  </si>
+  <si>
+    <t>S1C36E18</t>
+  </si>
+  <si>
+    <t>S1EA3B19</t>
+  </si>
+  <si>
+    <t>S13D7D20</t>
+  </si>
+  <si>
+    <t>S1DEED21</t>
+  </si>
+  <si>
+    <t>S1727022</t>
+  </si>
+  <si>
+    <t>S1E91023</t>
+  </si>
+  <si>
+    <t>S144F424</t>
+  </si>
+  <si>
+    <t>S1A65F25</t>
+  </si>
+  <si>
+    <t>S19ACA26</t>
+  </si>
+  <si>
+    <t>S1033427</t>
+  </si>
+  <si>
+    <t>S1DF6E28</t>
+  </si>
+  <si>
+    <t>S179F329</t>
+  </si>
+  <si>
+    <t>S198C430</t>
+  </si>
+  <si>
+    <t>S1873031</t>
+  </si>
+  <si>
+    <t>S1FF4532</t>
+  </si>
+  <si>
+    <t>S1FE6D33</t>
+  </si>
+  <si>
+    <t>S110D834</t>
+  </si>
+  <si>
+    <t>S114E535</t>
+  </si>
+  <si>
+    <t>S1B04236</t>
+  </si>
+  <si>
+    <t>S1422137</t>
+  </si>
+  <si>
+    <t>S1E1E338</t>
+  </si>
+  <si>
+    <t>S1902839</t>
+  </si>
+  <si>
+    <t>S11AF140</t>
+  </si>
+  <si>
+    <t>S1187F41</t>
+  </si>
+  <si>
+    <t>S1EE5342</t>
+  </si>
+  <si>
+    <t>S11F6C43</t>
+  </si>
+  <si>
+    <t>S17BFC44</t>
+  </si>
+  <si>
+    <t>S14AAF45</t>
+  </si>
+  <si>
+    <t>S1BEC946</t>
+  </si>
+  <si>
+    <t>S1045B47</t>
+  </si>
+  <si>
+    <t>S1C2BA48</t>
+  </si>
+  <si>
+    <t>S1C90849</t>
+  </si>
+  <si>
+    <t>S1B2B250</t>
+  </si>
+  <si>
+    <t>S10C6551</t>
+  </si>
+  <si>
+    <t>S11C7052</t>
+  </si>
+  <si>
+    <t>S1F06653</t>
+  </si>
+  <si>
+    <t>S169F354</t>
+  </si>
+  <si>
+    <t>S11B5755</t>
+  </si>
+  <si>
+    <t>S1F78956</t>
+  </si>
+  <si>
+    <t>S10C4557</t>
+  </si>
+  <si>
+    <t>S1DEFD58</t>
+  </si>
+  <si>
+    <t>S1B48659</t>
+  </si>
+  <si>
+    <t>S19B0D60</t>
+  </si>
+  <si>
+    <t>S1AB6461</t>
+  </si>
+  <si>
+    <t>S193FC62</t>
+  </si>
+  <si>
+    <t>S1F60863</t>
+  </si>
+  <si>
+    <t>S1A4B164</t>
+  </si>
+  <si>
+    <t>S16A3965</t>
+  </si>
+  <si>
+    <t>S1D4F266</t>
+  </si>
+  <si>
+    <t>S1798667</t>
+  </si>
+  <si>
+    <t>S1205368</t>
+  </si>
+  <si>
+    <t>S16BF169</t>
+  </si>
+  <si>
+    <t>S1952E70</t>
+  </si>
+  <si>
+    <t>S1786371</t>
+  </si>
+  <si>
+    <t>S10D9A72</t>
+  </si>
+  <si>
+    <t>S1E31C73</t>
+  </si>
+  <si>
+    <t>S1E6C674</t>
+  </si>
+  <si>
+    <t>S1F9C375</t>
+  </si>
+  <si>
+    <t>S1DF0176</t>
+  </si>
+  <si>
+    <t>S1BF6377</t>
+  </si>
+  <si>
+    <t>S160A478</t>
+  </si>
+  <si>
+    <t>S17C0579</t>
+  </si>
+  <si>
+    <t>S1AA6380</t>
+  </si>
+  <si>
+    <t>S1E00681</t>
+  </si>
+  <si>
+    <t>S12BFC82</t>
+  </si>
+  <si>
+    <t>S1140883</t>
+  </si>
+  <si>
+    <t>S1829A84</t>
+  </si>
+  <si>
+    <t>S1804785</t>
+  </si>
+  <si>
+    <t>S1D52D86</t>
+  </si>
+  <si>
+    <t>S1DBDC87</t>
+  </si>
+  <si>
+    <t>S1FDF188</t>
+  </si>
+  <si>
+    <t>S1B2A789</t>
+  </si>
+  <si>
+    <t>S1A79390</t>
+  </si>
+  <si>
+    <t>S109A491</t>
+  </si>
+  <si>
+    <t>S142BA92</t>
+  </si>
+  <si>
+    <t>S1072C93</t>
+  </si>
+  <si>
+    <t>S19B0494</t>
+  </si>
+  <si>
+    <t>S16A0D95</t>
+  </si>
+  <si>
+    <t>S1E96C96</t>
+  </si>
+  <si>
+    <t>S199BB97</t>
+  </si>
+  <si>
+    <t>S1A69398</t>
+  </si>
+  <si>
+    <t>S1CA3B99</t>
+  </si>
+  <si>
+    <t>S29EC90</t>
+  </si>
+  <si>
+    <t>S2EBE01</t>
+  </si>
+  <si>
+    <t>S2B7682</t>
+  </si>
+  <si>
+    <t>S29E663</t>
+  </si>
+  <si>
+    <t>S26C8F4</t>
+  </si>
+  <si>
+    <t>S207035</t>
+  </si>
+  <si>
+    <t>S2A0266</t>
+  </si>
+  <si>
+    <t>S2C9247</t>
+  </si>
+  <si>
+    <t>S2ADD38</t>
+  </si>
+  <si>
+    <t>S2281A9</t>
+  </si>
+  <si>
+    <t>S291E410</t>
+  </si>
+  <si>
+    <t>S20E9411</t>
+  </si>
+  <si>
+    <t>S28AB912</t>
+  </si>
+  <si>
+    <t>S2B2D713</t>
+  </si>
+  <si>
+    <t>S2239214</t>
+  </si>
+  <si>
+    <t>S21CB415</t>
+  </si>
+  <si>
+    <t>S2D11016</t>
+  </si>
+  <si>
+    <t>S201C517</t>
+  </si>
+  <si>
+    <t>S2C36E18</t>
+  </si>
+  <si>
+    <t>S2EA3B19</t>
+  </si>
+  <si>
+    <t>S23D7D20</t>
+  </si>
+  <si>
+    <t>S2DEED21</t>
+  </si>
+  <si>
+    <t>S2727022</t>
+  </si>
+  <si>
+    <t>S2E91023</t>
+  </si>
+  <si>
+    <t>S244F424</t>
+  </si>
+  <si>
+    <t>S2A65F25</t>
+  </si>
+  <si>
+    <t>S29ACA26</t>
+  </si>
+  <si>
+    <t>S2033427</t>
+  </si>
+  <si>
+    <t>S2DF6E28</t>
+  </si>
+  <si>
+    <t>S279F329</t>
+  </si>
+  <si>
+    <t>S298C430</t>
+  </si>
+  <si>
+    <t>S2873031</t>
+  </si>
+  <si>
+    <t>S2FF4532</t>
+  </si>
+  <si>
+    <t>S2FE6D33</t>
+  </si>
+  <si>
+    <t>S210D834</t>
+  </si>
+  <si>
+    <t>S214E535</t>
+  </si>
+  <si>
+    <t>S2B04236</t>
+  </si>
+  <si>
+    <t>S2422137</t>
+  </si>
+  <si>
+    <t>S2E1E338</t>
+  </si>
+  <si>
+    <t>S2902839</t>
+  </si>
+  <si>
+    <t>S21AF140</t>
+  </si>
+  <si>
+    <t>S2187F41</t>
+  </si>
+  <si>
+    <t>S2EE5342</t>
+  </si>
+  <si>
+    <t>S21F6C43</t>
+  </si>
+  <si>
+    <t>S27BFC44</t>
+  </si>
+  <si>
+    <t>S24AAF45</t>
+  </si>
+  <si>
+    <t>S2BEC946</t>
+  </si>
+  <si>
+    <t>S2045B47</t>
+  </si>
+  <si>
+    <t>S2C2BA48</t>
+  </si>
+  <si>
+    <t>S2C90849</t>
+  </si>
+  <si>
+    <t>S2B2B250</t>
+  </si>
+  <si>
+    <t>S20C6551</t>
+  </si>
+  <si>
+    <t>S21C7052</t>
+  </si>
+  <si>
+    <t>S2F06653</t>
+  </si>
+  <si>
+    <t>S269F354</t>
+  </si>
+  <si>
+    <t>S21B5755</t>
+  </si>
+  <si>
+    <t>S2F78956</t>
+  </si>
+  <si>
+    <t>S20C4557</t>
+  </si>
+  <si>
+    <t>S2DEFD58</t>
+  </si>
+  <si>
+    <t>S2B48659</t>
+  </si>
+  <si>
+    <t>S29B0D60</t>
+  </si>
+  <si>
+    <t>S2AB6461</t>
+  </si>
+  <si>
+    <t>S293FC62</t>
+  </si>
+  <si>
+    <t>S2F60863</t>
+  </si>
+  <si>
+    <t>S2A4B164</t>
+  </si>
+  <si>
+    <t>S26A3965</t>
+  </si>
+  <si>
+    <t>S2D4F266</t>
+  </si>
+  <si>
+    <t>S2798667</t>
+  </si>
+  <si>
+    <t>S2205368</t>
+  </si>
+  <si>
+    <t>S26BF169</t>
+  </si>
+  <si>
+    <t>S2952E70</t>
+  </si>
+  <si>
+    <t>S2786371</t>
+  </si>
+  <si>
+    <t>S20D9A72</t>
+  </si>
+  <si>
+    <t>S2E31C73</t>
+  </si>
+  <si>
+    <t>S2E6C674</t>
+  </si>
+  <si>
+    <t>S2F9C375</t>
+  </si>
+  <si>
+    <t>S2DF0176</t>
+  </si>
+  <si>
+    <t>S2BF6377</t>
+  </si>
+  <si>
+    <t>S260A478</t>
+  </si>
+  <si>
+    <t>S27C0579</t>
+  </si>
+  <si>
+    <t>S2AA6380</t>
+  </si>
+  <si>
+    <t>S2E00681</t>
+  </si>
+  <si>
+    <t>S22BFC82</t>
+  </si>
+  <si>
+    <t>S2140883</t>
+  </si>
+  <si>
+    <t>S2829A84</t>
+  </si>
+  <si>
+    <t>S2804785</t>
+  </si>
+  <si>
+    <t>S2D52D86</t>
+  </si>
+  <si>
+    <t>S2DBDC87</t>
+  </si>
+  <si>
+    <t>S2FDF188</t>
+  </si>
+  <si>
+    <t>S2B2A789</t>
+  </si>
+  <si>
+    <t>S2A79390</t>
+  </si>
+  <si>
+    <t>S209A491</t>
+  </si>
+  <si>
+    <t>S242BA92</t>
+  </si>
+  <si>
+    <t>S2072C93</t>
+  </si>
+  <si>
+    <t>S29B0494</t>
+  </si>
+  <si>
+    <t>S26A0D95</t>
+  </si>
+  <si>
+    <t>S2E96C96</t>
+  </si>
+  <si>
+    <t>S299BB97</t>
+  </si>
+  <si>
+    <t>S2A69398</t>
+  </si>
+  <si>
+    <t>S2CA3B99</t>
+  </si>
+  <si>
+    <t>S39EC90</t>
+  </si>
+  <si>
+    <t>S3EBE01</t>
+  </si>
+  <si>
+    <t>S3B7682</t>
+  </si>
+  <si>
+    <t>S39E663</t>
+  </si>
+  <si>
+    <t>S36C8F4</t>
+  </si>
+  <si>
+    <t>S307035</t>
+  </si>
+  <si>
+    <t>S3A0266</t>
+  </si>
+  <si>
+    <t>S3C9247</t>
+  </si>
+  <si>
+    <t>S3ADD38</t>
+  </si>
+  <si>
+    <t>S3281A9</t>
+  </si>
+  <si>
+    <t>S391E410</t>
+  </si>
+  <si>
+    <t>S30E9411</t>
+  </si>
+  <si>
+    <t>S38AB912</t>
+  </si>
+  <si>
+    <t>S3B2D713</t>
+  </si>
+  <si>
+    <t>S3239214</t>
+  </si>
+  <si>
+    <t>S31CB415</t>
+  </si>
+  <si>
+    <t>S3D11016</t>
+  </si>
+  <si>
+    <t>S301C517</t>
+  </si>
+  <si>
+    <t>S3C36E18</t>
+  </si>
+  <si>
+    <t>S3EA3B19</t>
+  </si>
+  <si>
+    <t>S33D7D20</t>
+  </si>
+  <si>
+    <t>S3DEED21</t>
+  </si>
+  <si>
+    <t>S3727022</t>
+  </si>
+  <si>
+    <t>S3E91023</t>
+  </si>
+  <si>
+    <t>S344F424</t>
+  </si>
+  <si>
+    <t>S3A65F25</t>
+  </si>
+  <si>
+    <t>S39ACA26</t>
+  </si>
+  <si>
+    <t>S3033427</t>
+  </si>
+  <si>
+    <t>S3DF6E28</t>
+  </si>
+  <si>
+    <t>S379F329</t>
+  </si>
+  <si>
+    <t>S398C430</t>
+  </si>
+  <si>
+    <t>S3873031</t>
+  </si>
+  <si>
+    <t>S3FF4532</t>
+  </si>
+  <si>
+    <t>S3FE6D33</t>
+  </si>
+  <si>
+    <t>S310D834</t>
+  </si>
+  <si>
+    <t>S314E535</t>
+  </si>
+  <si>
+    <t>S3B04236</t>
+  </si>
+  <si>
+    <t>S3422137</t>
+  </si>
+  <si>
+    <t>S3E1E338</t>
+  </si>
+  <si>
+    <t>S3902839</t>
+  </si>
+  <si>
+    <t>S31AF140</t>
+  </si>
+  <si>
+    <t>S3187F41</t>
+  </si>
+  <si>
+    <t>S3EE5342</t>
+  </si>
+  <si>
+    <t>S31F6C43</t>
+  </si>
+  <si>
+    <t>S37BFC44</t>
+  </si>
+  <si>
+    <t>S34AAF45</t>
+  </si>
+  <si>
+    <t>S3BEC946</t>
+  </si>
+  <si>
+    <t>S3045B47</t>
+  </si>
+  <si>
+    <t>S3C2BA48</t>
+  </si>
+  <si>
+    <t>S3C90849</t>
+  </si>
+  <si>
+    <t>S3B2B250</t>
+  </si>
+  <si>
+    <t>S30C6551</t>
+  </si>
+  <si>
+    <t>S31C7052</t>
+  </si>
+  <si>
+    <t>S3F06653</t>
+  </si>
+  <si>
+    <t>S369F354</t>
+  </si>
+  <si>
+    <t>S31B5755</t>
+  </si>
+  <si>
+    <t>S3F78956</t>
+  </si>
+  <si>
+    <t>S30C4557</t>
+  </si>
+  <si>
+    <t>S3DEFD58</t>
+  </si>
+  <si>
+    <t>S3B48659</t>
+  </si>
+  <si>
+    <t>S39B0D60</t>
+  </si>
+  <si>
+    <t>S3AB6461</t>
+  </si>
+  <si>
+    <t>S393FC62</t>
+  </si>
+  <si>
+    <t>S3F60863</t>
+  </si>
+  <si>
+    <t>S3A4B164</t>
+  </si>
+  <si>
+    <t>S36A3965</t>
+  </si>
+  <si>
+    <t>S3D4F266</t>
+  </si>
+  <si>
+    <t>S3798667</t>
+  </si>
+  <si>
+    <t>S3205368</t>
+  </si>
+  <si>
+    <t>S36BF169</t>
+  </si>
+  <si>
+    <t>S3952E70</t>
+  </si>
+  <si>
+    <t>S3786371</t>
+  </si>
+  <si>
+    <t>S30D9A72</t>
+  </si>
+  <si>
+    <t>S3E31C73</t>
+  </si>
+  <si>
+    <t>S3E6C674</t>
+  </si>
+  <si>
+    <t>S3F9C375</t>
+  </si>
+  <si>
+    <t>S3DF0176</t>
+  </si>
+  <si>
+    <t>S3BF6377</t>
+  </si>
+  <si>
+    <t>S360A478</t>
+  </si>
+  <si>
+    <t>S37C0579</t>
+  </si>
+  <si>
+    <t>S3AA6380</t>
+  </si>
+  <si>
+    <t>S3E00681</t>
+  </si>
+  <si>
+    <t>S32BFC82</t>
+  </si>
+  <si>
+    <t>S3140883</t>
+  </si>
+  <si>
+    <t>S3829A84</t>
+  </si>
+  <si>
+    <t>S3804785</t>
+  </si>
+  <si>
+    <t>S3D52D86</t>
+  </si>
+  <si>
+    <t>S3DBDC87</t>
+  </si>
+  <si>
+    <t>S3FDF188</t>
+  </si>
+  <si>
+    <t>S3B2A789</t>
+  </si>
+  <si>
+    <t>S3A79390</t>
+  </si>
+  <si>
+    <t>S309A491</t>
+  </si>
+  <si>
+    <t>S342BA92</t>
+  </si>
+  <si>
+    <t>S3072C93</t>
+  </si>
+  <si>
+    <t>S39B0494</t>
+  </si>
+  <si>
+    <t>S36A0D95</t>
+  </si>
+  <si>
+    <t>S3E96C96</t>
+  </si>
+  <si>
+    <t>S399BB97</t>
+  </si>
+  <si>
+    <t>S3A69398</t>
+  </si>
+  <si>
+    <t>S3CA3B99</t>
+  </si>
+  <si>
+    <t>S49EC90</t>
+  </si>
+  <si>
+    <t>S4EBE01</t>
+  </si>
+  <si>
+    <t>S4B7682</t>
+  </si>
+  <si>
+    <t>S49E663</t>
+  </si>
+  <si>
+    <t>S46C8F4</t>
+  </si>
+  <si>
+    <t>S407035</t>
+  </si>
+  <si>
+    <t>S4A0266</t>
+  </si>
+  <si>
+    <t>S4C9247</t>
+  </si>
+  <si>
+    <t>S4ADD38</t>
+  </si>
+  <si>
+    <t>S4281A9</t>
+  </si>
+  <si>
+    <t>S491E410</t>
+  </si>
+  <si>
+    <t>S40E9411</t>
+  </si>
+  <si>
+    <t>S48AB912</t>
+  </si>
+  <si>
+    <t>S4B2D713</t>
+  </si>
+  <si>
+    <t>S4239214</t>
+  </si>
+  <si>
+    <t>S41CB415</t>
+  </si>
+  <si>
+    <t>S4D11016</t>
+  </si>
+  <si>
+    <t>S401C517</t>
+  </si>
+  <si>
+    <t>S4C36E18</t>
+  </si>
+  <si>
+    <t>S4EA3B19</t>
+  </si>
+  <si>
+    <t>S43D7D20</t>
+  </si>
+  <si>
+    <t>S4DEED21</t>
+  </si>
+  <si>
+    <t>S4727022</t>
+  </si>
+  <si>
+    <t>S4E91023</t>
+  </si>
+  <si>
+    <t>S444F424</t>
+  </si>
+  <si>
+    <t>S4A65F25</t>
+  </si>
+  <si>
+    <t>S49ACA26</t>
+  </si>
+  <si>
+    <t>S4033427</t>
+  </si>
+  <si>
+    <t>S4DF6E28</t>
+  </si>
+  <si>
+    <t>S479F329</t>
+  </si>
+  <si>
+    <t>S498C430</t>
+  </si>
+  <si>
+    <t>S4873031</t>
+  </si>
+  <si>
+    <t>S4FF4532</t>
+  </si>
+  <si>
+    <t>S4FE6D33</t>
+  </si>
+  <si>
+    <t>S410D834</t>
+  </si>
+  <si>
+    <t>S414E535</t>
+  </si>
+  <si>
+    <t>S4B04236</t>
+  </si>
+  <si>
+    <t>S4422137</t>
+  </si>
+  <si>
+    <t>S4E1E338</t>
+  </si>
+  <si>
+    <t>S4902839</t>
+  </si>
+  <si>
+    <t>S41AF140</t>
+  </si>
+  <si>
+    <t>S4187F41</t>
+  </si>
+  <si>
+    <t>S4EE5342</t>
+  </si>
+  <si>
+    <t>S41F6C43</t>
+  </si>
+  <si>
+    <t>S47BFC44</t>
+  </si>
+  <si>
+    <t>S44AAF45</t>
+  </si>
+  <si>
+    <t>S4BEC946</t>
+  </si>
+  <si>
+    <t>S4045B47</t>
+  </si>
+  <si>
+    <t>S4C2BA48</t>
+  </si>
+  <si>
+    <t>S4C90849</t>
+  </si>
+  <si>
+    <t>S4B2B250</t>
+  </si>
+  <si>
+    <t>S40C6551</t>
+  </si>
+  <si>
+    <t>S41C7052</t>
+  </si>
+  <si>
+    <t>S4F06653</t>
+  </si>
+  <si>
+    <t>S469F354</t>
+  </si>
+  <si>
+    <t>S41B5755</t>
+  </si>
+  <si>
+    <t>S4F78956</t>
+  </si>
+  <si>
+    <t>S40C4557</t>
+  </si>
+  <si>
+    <t>S4DEFD58</t>
+  </si>
+  <si>
+    <t>S4B48659</t>
+  </si>
+  <si>
+    <t>S49B0D60</t>
+  </si>
+  <si>
+    <t>S4AB6461</t>
+  </si>
+  <si>
+    <t>S493FC62</t>
+  </si>
+  <si>
+    <t>S4F60863</t>
+  </si>
+  <si>
+    <t>S4A4B164</t>
+  </si>
+  <si>
+    <t>S46A3965</t>
+  </si>
+  <si>
+    <t>S4D4F266</t>
+  </si>
+  <si>
+    <t>S4798667</t>
+  </si>
+  <si>
+    <t>S4205368</t>
+  </si>
+  <si>
+    <t>S46BF169</t>
+  </si>
+  <si>
+    <t>S4952E70</t>
+  </si>
+  <si>
+    <t>S4786371</t>
+  </si>
+  <si>
+    <t>S40D9A72</t>
+  </si>
+  <si>
+    <t>S4E31C73</t>
+  </si>
+  <si>
+    <t>S4E6C674</t>
+  </si>
+  <si>
+    <t>S4F9C375</t>
+  </si>
+  <si>
+    <t>S4DF0176</t>
+  </si>
+  <si>
+    <t>S4BF6377</t>
+  </si>
+  <si>
+    <t>S460A478</t>
+  </si>
+  <si>
+    <t>S47C0579</t>
+  </si>
+  <si>
+    <t>S4AA6380</t>
+  </si>
+  <si>
+    <t>S4E00681</t>
+  </si>
+  <si>
+    <t>S42BFC82</t>
+  </si>
+  <si>
+    <t>S4140883</t>
+  </si>
+  <si>
+    <t>S4829A84</t>
+  </si>
+  <si>
+    <t>S4804785</t>
+  </si>
+  <si>
+    <t>S4D52D86</t>
+  </si>
+  <si>
+    <t>S4DBDC87</t>
+  </si>
+  <si>
+    <t>S4FDF188</t>
+  </si>
+  <si>
+    <t>S4B2A789</t>
+  </si>
+  <si>
+    <t>S4A79390</t>
+  </si>
+  <si>
+    <t>S409A491</t>
+  </si>
+  <si>
+    <t>S442BA92</t>
+  </si>
+  <si>
+    <t>S4072C93</t>
+  </si>
+  <si>
+    <t>S49B0494</t>
+  </si>
+  <si>
+    <t>S46A0D95</t>
+  </si>
+  <si>
+    <t>S4E96C96</t>
+  </si>
+  <si>
+    <t>S499BB97</t>
+  </si>
+  <si>
+    <t>S4A69398</t>
+  </si>
+  <si>
+    <t>S4CA3B99</t>
+  </si>
+  <si>
+    <t>S59EC90</t>
+  </si>
+  <si>
+    <t>S5EBE01</t>
+  </si>
+  <si>
+    <t>S5B7682</t>
+  </si>
+  <si>
+    <t>S59E663</t>
+  </si>
+  <si>
+    <t>S56C8F4</t>
+  </si>
+  <si>
+    <t>S507035</t>
+  </si>
+  <si>
+    <t>S5A0266</t>
+  </si>
+  <si>
+    <t>S5C9247</t>
+  </si>
+  <si>
+    <t>S5ADD38</t>
+  </si>
+  <si>
+    <t>S5281A9</t>
+  </si>
+  <si>
+    <t>S591E410</t>
+  </si>
+  <si>
+    <t>S50E9411</t>
+  </si>
+  <si>
+    <t>S58AB912</t>
+  </si>
+  <si>
+    <t>S5B2D713</t>
+  </si>
+  <si>
+    <t>S5239214</t>
+  </si>
+  <si>
+    <t>S51CB415</t>
+  </si>
+  <si>
+    <t>S5D11016</t>
+  </si>
+  <si>
+    <t>S501C517</t>
+  </si>
+  <si>
+    <t>S5C36E18</t>
+  </si>
+  <si>
+    <t>S5EA3B19</t>
+  </si>
+  <si>
+    <t>S53D7D20</t>
+  </si>
+  <si>
+    <t>S5DEED21</t>
+  </si>
+  <si>
+    <t>S5727022</t>
+  </si>
+  <si>
+    <t>S5E91023</t>
+  </si>
+  <si>
+    <t>S544F424</t>
+  </si>
+  <si>
+    <t>S5A65F25</t>
+  </si>
+  <si>
+    <t>S59ACA26</t>
+  </si>
+  <si>
+    <t>S5033427</t>
+  </si>
+  <si>
+    <t>S5DF6E28</t>
+  </si>
+  <si>
+    <t>S579F329</t>
+  </si>
+  <si>
+    <t>S598C430</t>
+  </si>
+  <si>
+    <t>S5873031</t>
+  </si>
+  <si>
+    <t>S5FF4532</t>
+  </si>
+  <si>
+    <t>S5FE6D33</t>
+  </si>
+  <si>
+    <t>S510D834</t>
+  </si>
+  <si>
+    <t>S514E535</t>
+  </si>
+  <si>
+    <t>S5B04236</t>
+  </si>
+  <si>
+    <t>S5422137</t>
+  </si>
+  <si>
+    <t>S5E1E338</t>
+  </si>
+  <si>
+    <t>S5902839</t>
+  </si>
+  <si>
+    <t>S51AF140</t>
+  </si>
+  <si>
+    <t>S5187F41</t>
+  </si>
+  <si>
+    <t>S5EE5342</t>
+  </si>
+  <si>
+    <t>S51F6C43</t>
+  </si>
+  <si>
+    <t>S57BFC44</t>
+  </si>
+  <si>
+    <t>S54AAF45</t>
+  </si>
+  <si>
+    <t>S5BEC946</t>
+  </si>
+  <si>
+    <t>S5045B47</t>
+  </si>
+  <si>
+    <t>S5C2BA48</t>
+  </si>
+  <si>
+    <t>S5C90849</t>
+  </si>
+  <si>
+    <t>S5B2B250</t>
+  </si>
+  <si>
+    <t>S50C6551</t>
+  </si>
+  <si>
+    <t>S51C7052</t>
+  </si>
+  <si>
+    <t>S5F06653</t>
+  </si>
+  <si>
+    <t>S569F354</t>
+  </si>
+  <si>
+    <t>S51B5755</t>
+  </si>
+  <si>
+    <t>S5F78956</t>
+  </si>
+  <si>
+    <t>S50C4557</t>
+  </si>
+  <si>
+    <t>S5DEFD58</t>
+  </si>
+  <si>
+    <t>S5B48659</t>
+  </si>
+  <si>
+    <t>S59B0D60</t>
+  </si>
+  <si>
+    <t>S5AB6461</t>
+  </si>
+  <si>
+    <t>S593FC62</t>
+  </si>
+  <si>
+    <t>S5F60863</t>
+  </si>
+  <si>
+    <t>S5A4B164</t>
+  </si>
+  <si>
+    <t>S56A3965</t>
+  </si>
+  <si>
+    <t>S5D4F266</t>
+  </si>
+  <si>
+    <t>S5798667</t>
+  </si>
+  <si>
+    <t>S5205368</t>
+  </si>
+  <si>
+    <t>S56BF169</t>
+  </si>
+  <si>
+    <t>S5952E70</t>
+  </si>
+  <si>
+    <t>S5786371</t>
+  </si>
+  <si>
+    <t>S50D9A72</t>
+  </si>
+  <si>
+    <t>S5E31C73</t>
+  </si>
+  <si>
+    <t>S5E6C674</t>
+  </si>
+  <si>
+    <t>S5F9C375</t>
+  </si>
+  <si>
+    <t>S5DF0176</t>
+  </si>
+  <si>
+    <t>S5BF6377</t>
+  </si>
+  <si>
+    <t>S560A478</t>
+  </si>
+  <si>
+    <t>S57C0579</t>
+  </si>
+  <si>
+    <t>S5AA6380</t>
+  </si>
+  <si>
+    <t>S5E00681</t>
+  </si>
+  <si>
+    <t>S52BFC82</t>
+  </si>
+  <si>
+    <t>S5140883</t>
+  </si>
+  <si>
+    <t>S5829A84</t>
+  </si>
+  <si>
+    <t>S5804785</t>
+  </si>
+  <si>
+    <t>S5D52D86</t>
+  </si>
+  <si>
+    <t>S5DBDC87</t>
+  </si>
+  <si>
+    <t>S5FDF188</t>
+  </si>
+  <si>
+    <t>S5B2A789</t>
+  </si>
+  <si>
+    <t>S5A79390</t>
+  </si>
+  <si>
+    <t>S509A491</t>
+  </si>
+  <si>
+    <t>S542BA92</t>
+  </si>
+  <si>
+    <t>S5072C93</t>
+  </si>
+  <si>
+    <t>S59B0494</t>
+  </si>
+  <si>
+    <t>S56A0D95</t>
+  </si>
+  <si>
+    <t>S5E96C96</t>
+  </si>
+  <si>
+    <t>S599BB97</t>
+  </si>
+  <si>
+    <t>S5A69398</t>
+  </si>
+  <si>
+    <t>S5CA3B99</t>
+  </si>
+  <si>
+    <t>S69EC90</t>
+  </si>
+  <si>
+    <t>S6EBE01</t>
+  </si>
+  <si>
+    <t>S6B7682</t>
+  </si>
+  <si>
+    <t>S69E663</t>
+  </si>
+  <si>
+    <t>S66C8F4</t>
+  </si>
+  <si>
+    <t>S607035</t>
+  </si>
+  <si>
+    <t>S6A0266</t>
+  </si>
+  <si>
+    <t>S6C9247</t>
+  </si>
+  <si>
+    <t>S6ADD38</t>
+  </si>
+  <si>
+    <t>S6281A9</t>
+  </si>
+  <si>
+    <t>S691E410</t>
+  </si>
+  <si>
+    <t>S60E9411</t>
+  </si>
+  <si>
+    <t>S68AB912</t>
+  </si>
+  <si>
+    <t>S6B2D713</t>
+  </si>
+  <si>
+    <t>S6239214</t>
+  </si>
+  <si>
+    <t>S61CB415</t>
+  </si>
+  <si>
+    <t>S6D11016</t>
+  </si>
+  <si>
+    <t>S601C517</t>
+  </si>
+  <si>
+    <t>S6C36E18</t>
+  </si>
+  <si>
+    <t>S6EA3B19</t>
+  </si>
+  <si>
+    <t>S63D7D20</t>
+  </si>
+  <si>
+    <t>S6DEED21</t>
+  </si>
+  <si>
+    <t>S6727022</t>
+  </si>
+  <si>
+    <t>S6E91023</t>
+  </si>
+  <si>
+    <t>S644F424</t>
+  </si>
+  <si>
+    <t>S6A65F25</t>
+  </si>
+  <si>
+    <t>S69ACA26</t>
+  </si>
+  <si>
+    <t>S6033427</t>
+  </si>
+  <si>
+    <t>S6DF6E28</t>
+  </si>
+  <si>
+    <t>S679F329</t>
+  </si>
+  <si>
+    <t>S698C430</t>
+  </si>
+  <si>
+    <t>S6873031</t>
+  </si>
+  <si>
+    <t>S6FF4532</t>
+  </si>
+  <si>
+    <t>S6FE6D33</t>
+  </si>
+  <si>
+    <t>S610D834</t>
+  </si>
+  <si>
+    <t>S614E535</t>
+  </si>
+  <si>
+    <t>S6B04236</t>
+  </si>
+  <si>
+    <t>S6422137</t>
+  </si>
+  <si>
+    <t>S6E1E338</t>
+  </si>
+  <si>
+    <t>S6902839</t>
+  </si>
+  <si>
+    <t>S61AF140</t>
+  </si>
+  <si>
+    <t>S6187F41</t>
+  </si>
+  <si>
+    <t>S6EE5342</t>
+  </si>
+  <si>
+    <t>S61F6C43</t>
+  </si>
+  <si>
+    <t>S67BFC44</t>
+  </si>
+  <si>
+    <t>S64AAF45</t>
+  </si>
+  <si>
+    <t>S6BEC946</t>
+  </si>
+  <si>
+    <t>S6045B47</t>
+  </si>
+  <si>
+    <t>S6C2BA48</t>
+  </si>
+  <si>
+    <t>S6C90849</t>
+  </si>
+  <si>
+    <t>S6B2B250</t>
+  </si>
+  <si>
+    <t>S60C6551</t>
+  </si>
+  <si>
+    <t>S61C7052</t>
+  </si>
+  <si>
+    <t>S6F06653</t>
+  </si>
+  <si>
+    <t>S669F354</t>
+  </si>
+  <si>
+    <t>S61B5755</t>
+  </si>
+  <si>
+    <t>S6F78956</t>
+  </si>
+  <si>
+    <t>S60C4557</t>
+  </si>
+  <si>
+    <t>S6DEFD58</t>
+  </si>
+  <si>
+    <t>S6B48659</t>
+  </si>
+  <si>
+    <t>S69B0D60</t>
+  </si>
+  <si>
+    <t>S6AB6461</t>
+  </si>
+  <si>
+    <t>S693FC62</t>
+  </si>
+  <si>
+    <t>S6F60863</t>
+  </si>
+  <si>
+    <t>S6A4B164</t>
+  </si>
+  <si>
+    <t>S66A3965</t>
+  </si>
+  <si>
+    <t>S6D4F266</t>
+  </si>
+  <si>
+    <t>S6798667</t>
+  </si>
+  <si>
+    <t>S6205368</t>
+  </si>
+  <si>
+    <t>S66BF169</t>
+  </si>
+  <si>
+    <t>S6952E70</t>
+  </si>
+  <si>
+    <t>S6786371</t>
+  </si>
+  <si>
+    <t>S60D9A72</t>
+  </si>
+  <si>
+    <t>S6E31C73</t>
+  </si>
+  <si>
+    <t>S6E6C674</t>
+  </si>
+  <si>
+    <t>S6F9C375</t>
+  </si>
+  <si>
+    <t>S6DF0176</t>
+  </si>
+  <si>
+    <t>S6BF6377</t>
+  </si>
+  <si>
+    <t>S660A478</t>
+  </si>
+  <si>
+    <t>S67C0579</t>
+  </si>
+  <si>
+    <t>S6AA6380</t>
+  </si>
+  <si>
+    <t>S6E00681</t>
+  </si>
+  <si>
+    <t>S62BFC82</t>
+  </si>
+  <si>
+    <t>S6140883</t>
+  </si>
+  <si>
+    <t>S6829A84</t>
+  </si>
+  <si>
+    <t>S6804785</t>
+  </si>
+  <si>
+    <t>S6D52D86</t>
+  </si>
+  <si>
+    <t>S6DBDC87</t>
+  </si>
+  <si>
+    <t>S6FDF188</t>
+  </si>
+  <si>
+    <t>S6B2A789</t>
+  </si>
+  <si>
+    <t>S6A79390</t>
+  </si>
+  <si>
+    <t>S609A491</t>
+  </si>
+  <si>
+    <t>S642BA92</t>
+  </si>
+  <si>
+    <t>S6072C93</t>
+  </si>
+  <si>
+    <t>S69B0494</t>
+  </si>
+  <si>
+    <t>S66A0D95</t>
+  </si>
+  <si>
+    <t>S6E96C96</t>
+  </si>
+  <si>
+    <t>S699BB97</t>
+  </si>
+  <si>
+    <t>S6A69398</t>
+  </si>
+  <si>
+    <t>S6CA3B99</t>
   </si>
 </sst>
 </file>
